--- a/Pre Research Works/unique_assessments.xlsx
+++ b/Pre Research Works/unique_assessments.xlsx
@@ -522,17 +522,17 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>["['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •']", "['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], []"]</t>
+          <t>["['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], []", "['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •']"]</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches', 'compare and contrast two or more theories, events, or processes', 'classify or categorize cases, elements, or events using established criteria', 'paraphrase documents or speeches', 'find or identify examples or illustrations of a concept or principle', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established', 'criteria or standards], [activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches', 'compare and contrast two or more theories, events, or processes', 'classify or categorize cases, elements, or events using established criteria', 'paraphrase documents or speeches', 'find or identify examples or illustrations of a concept or principle', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established', 'criteria or standards], [activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established', 'criteria or standards], [activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established', 'criteria or standards, activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', '], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', '] [activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches', 'compare and contrast two or more theories, events, or processes', 'classify or categorize cases, elements, or events using established criteria', 'paraphrase documents or speeches', 'find or identify examples or illustrations of a concept or principle', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established', 'criteria or standards], [activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established', 'criteria or standards], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', '], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established', 'criteria or standards, activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', '], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', '],']</t>
+          <t>['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches', 'compare and contrast two or more theories, events, or processes', 'classify or categorize cases, elements, or events using established criteria', 'paraphrase documents or speeches', 'find or identify examples or illustrations of a concept or principle', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established', 'criteria or standards], [activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches', 'compare and contrast two or more theories, events, or processes', 'classify or categorize cases, elements, or events using established criteria', 'paraphrase documents or speeches', 'find or identify examples or illustrations of a concept or principle', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', '], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches', 'compare and contrast two or more theories, events, or processes', 'classify or categorize cases, elements, or events using established criteria', 'paraphrase documents or speeches', 'find or identify examples or illustrations of a concept or principle', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', '], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', '], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', '], [] [activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established', 'criteria or standards], [activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts']</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>['] [activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts']</t>
+          <t>['], [] [activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts']</t>
         </is>
       </c>
     </row>
@@ -573,12 +573,12 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>["['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •']"]</t>
+          <t>["['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], []"]</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches', 'compare and contrast two or more theories, events, or processes', 'classify or categorize cases, elements, or events using established criteria', 'paraphrase documents or speeches', 'find or identify examples or illustrations of a concept or principle', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established', 'criteria or standards], [activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches', 'compare and contrast two or more theories, events, or processes', 'classify or categorize cases, elements, or events using established criteria', 'paraphrase documents or speeches', 'find or identify examples or illustrations of a concept or principle', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', '], [activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches', 'compare and contrast two or more theories, events, or processes', 'classify or categorize cases, elements, or events using established criteria', 'paraphrase documents or speeches', 'find or identify examples or illustrations of a concept or principle', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established', 'criteria or standards], [activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established', 'criteria or standards], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches', 'compare and contrast two or more theories, events, or processes', 'classify or categorize cases, elements, or events using established criteria', 'paraphrase documents or speeches', 'find or identify examples or illustrations of a concept or principle', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', '], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', '], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches', 'compare and contrast two or more theories, events, or processes', 'classify or categorize cases, elements, or events using established criteria', 'paraphrase documents or speeches', 'find or identify examples or illustrations of a concept or principle', '], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', '], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', '], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established', 'criteria or standards, activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', '], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task']</t>
+          <t>['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches', 'compare and contrast two or more theories, events, or processes', 'classify or categorize cases, elements, or events using established criteria', 'paraphrase documents or speeches', 'find or identify examples or illustrations of a concept or principle', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established', 'criteria or standards], [activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches', 'compare and contrast two or more theories, events, or processes', 'classify or categorize cases, elements, or events using established criteria', 'paraphrase documents or speeches', 'find or identify examples or illustrations of a concept or principle', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', '], [activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established', 'criteria or standards], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches', 'compare and contrast two or more theories, events, or processes', 'classify or categorize cases, elements, or events using established criteria', 'paraphrase documents or speeches', 'find or identify examples or illustrations of a concept or principle', '], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established', 'criteria or standards, activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', '],']</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -624,17 +624,17 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>["['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], []"]</t>
+          <t>["['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], []"]</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established', 'criteria or standards, activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', '], [activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches', 'compare and contrast two or more theories, events, or processes', 'classify or categorize cases, elements, or events using established criteria', 'paraphrase documents or speeches', 'find or identify examples or illustrations of a concept or principle', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established', 'criteria or standards], [activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches', 'compare and contrast two or more theories, events, or processes', 'classify or categorize cases, elements, or events using established criteria', 'paraphrase documents or speeches', 'find or identify examples or illustrations of a concept or principle', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', '], [activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches', 'compare and contrast two or more theories, events, or processes', 'classify or categorize cases, elements, or events using established criteria', 'paraphrase documents or speeches', 'find or identify examples or illustrations of a concept or principle', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established', 'criteria or standards], [activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established', 'criteria or standards], [activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established', 'criteria or standards, activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', '], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches', 'compare and contrast two or more theories, events, or processes', 'classify or categorize cases, elements, or events using established criteria', 'paraphrase documents or speeches', 'find or identify examples or illustrations of a concept or principle', '], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', '], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', '], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established', 'criteria or standards, activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', '], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', '], [objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', '],']</t>
+          <t>['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches', 'compare and contrast two or more theories, events, or processes', 'classify or categorize cases, elements, or events using established criteria', 'paraphrase documents or speeches', 'find or identify examples or illustrations of a concept or principle', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established', 'criteria or standards], [activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches', 'compare and contrast two or more theories, events, or processes', 'classify or categorize cases, elements, or events using established criteria', 'paraphrase documents or speeches', 'find or identify examples or illustrations of a concept or principle', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established', 'criteria or standards], [activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established', 'criteria or standards], [activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established', 'criteria or standards, activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', '], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established', 'criteria or standards, activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', '], [objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', '],']</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>['criteria or standards, activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', '], [objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts']</t>
+          <t>['criteria or standards], [activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established', '], [objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts']</t>
         </is>
       </c>
     </row>
@@ -675,12 +675,12 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>["['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •']"]</t>
+          <t>["['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], []"]</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches', 'compare and contrast two or more theories, events, or processes', 'classify or categorize cases, elements, or events using established criteria', 'paraphrase documents or speeches', 'find or identify examples or illustrations of a concept or principle', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established', 'criteria or standards], [activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches', 'compare and contrast two or more theories, events, or processes', 'classify or categorize cases, elements, or events using established criteria', 'paraphrase documents or speeches', 'find or identify examples or illustrations of a concept or principle', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', '], [activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches', 'compare and contrast two or more theories, events, or processes', 'classify or categorize cases, elements, or events using established criteria', 'paraphrase documents or speeches', 'find or identify examples or illustrations of a concept or principle', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established', 'criteria or standards], [activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established', 'criteria or standards], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches', 'compare and contrast two or more theories, events, or processes', 'classify or categorize cases, elements, or events using established criteria', 'paraphrase documents or speeches', 'find or identify examples or illustrations of a concept or principle', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', '], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', '], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches', 'compare and contrast two or more theories, events, or processes', 'classify or categorize cases, elements, or events using established criteria', 'paraphrase documents or speeches', 'find or identify examples or illustrations of a concept or principle', '], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', '], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', '], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established', 'criteria or standards, activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', '], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task']</t>
+          <t>['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches', 'compare and contrast two or more theories, events, or processes', 'classify or categorize cases, elements, or events using established criteria', 'paraphrase documents or speeches', 'find or identify examples or illustrations of a concept or principle', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established', 'criteria or standards], [activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches', 'compare and contrast two or more theories, events, or processes', 'classify or categorize cases, elements, or events using established criteria', 'paraphrase documents or speeches', 'find or identify examples or illustrations of a concept or principle', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', '], [activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established', 'criteria or standards], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches', 'compare and contrast two or more theories, events, or processes', 'classify or categorize cases, elements, or events using established criteria', 'paraphrase documents or speeches', 'find or identify examples or illustrations of a concept or principle', '], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established', 'criteria or standards, activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', '],']</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -726,12 +726,12 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>["['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •']"]</t>
+          <t>["['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], []"]</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches', 'compare and contrast two or more theories, events, or processes', 'classify or categorize cases, elements, or events using established criteria', 'paraphrase documents or speeches', 'find or identify examples or illustrations of a concept or principle', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established', 'criteria or standards], [activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches', 'compare and contrast two or more theories, events, or processes', 'classify or categorize cases, elements, or events using established criteria', 'paraphrase documents or speeches', 'find or identify examples or illustrations of a concept or principle', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', '], [activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches', 'compare and contrast two or more theories, events, or processes', 'classify or categorize cases, elements, or events using established criteria', 'paraphrase documents or speeches', 'find or identify examples or illustrations of a concept or principle', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established', 'criteria or standards], [activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established', 'criteria or standards], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches', 'compare and contrast two or more theories, events, or processes', 'classify or categorize cases, elements, or events using established criteria', 'paraphrase documents or speeches', 'find or identify examples or illustrations of a concept or principle', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', '], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', '], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches', 'compare and contrast two or more theories, events, or processes', 'classify or categorize cases, elements, or events using established criteria', 'paraphrase documents or speeches', 'find or identify examples or illustrations of a concept or principle', '], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', '], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', '], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established', 'criteria or standards, activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', '], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task']</t>
+          <t>['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches', 'compare and contrast two or more theories, events, or processes', 'classify or categorize cases, elements, or events using established criteria', 'paraphrase documents or speeches', 'find or identify examples or illustrations of a concept or principle', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established', 'criteria or standards], [activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches', 'compare and contrast two or more theories, events, or processes', 'classify or categorize cases, elements, or events using established criteria', 'paraphrase documents or speeches', 'find or identify examples or illustrations of a concept or principle', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', '], [activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established', 'criteria or standards], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches', 'compare and contrast two or more theories, events, or processes', 'classify or categorize cases, elements, or events using established criteria', 'paraphrase documents or speeches', 'find or identify examples or illustrations of a concept or principle', '], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established', 'criteria or standards, activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', '],']</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">

--- a/Pre Research Works/unique_assessments.xlsx
+++ b/Pre Research Works/unique_assessments.xlsx
@@ -522,17 +522,17 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>["['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], []", "['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •']"]</t>
+          <t>["['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •']", "['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], []"]</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches', 'compare and contrast two or more theories, events, or processes', 'classify or categorize cases, elements, or events using established criteria', 'paraphrase documents or speeches', 'find or identify examples or illustrations of a concept or principle', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established', 'criteria or standards], [activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches', 'compare and contrast two or more theories, events, or processes', 'classify or categorize cases, elements, or events using established criteria', 'paraphrase documents or speeches', 'find or identify examples or illustrations of a concept or principle', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', '], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches', 'compare and contrast two or more theories, events, or processes', 'classify or categorize cases, elements, or events using established criteria', 'paraphrase documents or speeches', 'find or identify examples or illustrations of a concept or principle', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', '], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', '], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', '], [] [activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established', 'criteria or standards], [activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts']</t>
+          <t>['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established', 'criteria or standards], [activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', '] [activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches', 'compare and contrast two or more theories, events, or processes', 'classify or categorize cases, elements, or events using established criteria', 'paraphrase documents or speeches', 'find or identify examples or illustrations of a concept or principle', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established', 'criteria or standards], [activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches', 'compare and contrast two or more theories, events, or processes', 'classify or categorize cases, elements, or events using established criteria', 'paraphrase documents or speeches', 'find or identify examples or illustrations of a concept or principle', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', '], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches', 'compare and contrast two or more theories, events, or processes', 'classify or categorize cases, elements, or events using established criteria', 'paraphrase documents or speeches', 'find or identify examples or illustrations of a concept or principle', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', '], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', '], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', '],']</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>['], [] [activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts']</t>
+          <t>['] [activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts']</t>
         </is>
       </c>
     </row>

--- a/Pre Research Works/unique_assessments.xlsx
+++ b/Pre Research Works/unique_assessments.xlsx
@@ -496,43 +496,43 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>introduction to digital image and video processing</t>
+          <t>introduction</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Digital image representation, Sampling and Quantization, Types of Images, Basic Relations between Pixels - Neighbors, Connectivity, Distance Measures between pixels, Introduction to Digital Video, Sampled Video, Video Transmission. Gray-Level Processing: Image Histogram, Linear and Non-linear point operations on Images, Image Thresholding, Region labelling, Binary Image Morphology.</t>
+          <t>Concepts of Data Analytics: Descriptive, Diagnostic, Predictive, Prescriptive analytics - Big Data characteristics: Volume, Velocity, Variety, Veracity of data - Types of data: Structured, Unstructured, Semi-Structured, Metadata - Introduction to Hadoop Scaling - Distributed Framework -Hadoop v/s RDBMS-Brief history of Hadoop.</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>apply the image and video analysis approaches to solve real world problems</t>
+          <t>understand the big data concepts in real time scenario</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0.2325973172734696</v>
+        <v>0</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>applysolve</t>
+          <t>understand</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>["['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •']", "['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], []"]</t>
+          <t>["['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], []"]</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established', 'criteria or standards], [activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', '] [activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches', 'compare and contrast two or more theories, events, or processes', 'classify or categorize cases, elements, or events using established criteria', 'paraphrase documents or speeches', 'find or identify examples or illustrations of a concept or principle', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established', 'criteria or standards], [activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches', 'compare and contrast two or more theories, events, or processes', 'classify or categorize cases, elements, or events using established criteria', 'paraphrase documents or speeches', 'find or identify examples or illustrations of a concept or principle', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', '], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches', 'compare and contrast two or more theories, events, or processes', 'classify or categorize cases, elements, or events using established criteria', 'paraphrase documents or speeches', 'find or identify examples or illustrations of a concept or principle', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', '], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', '], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', '],']</t>
+          <t>['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches', 'compare and contrast two or more theories, events, or processes', 'classify or categorize cases, elements, or events using established criteria', 'paraphrase documents or speeches', 'find or identify examples or illustrations of a concept or principle', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established', 'criteria or standards], [activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches', 'compare and contrast two or more theories, events, or processes', 'classify or categorize cases, elements, or events using established criteria', 'paraphrase documents or speeches', 'find or identify examples or illustrations of a concept or principle', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established', 'criteria or standards], [activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established', 'criteria or standards], [activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established', 'criteria or standards, activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', '], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established', 'criteria or standards, activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', '], [objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', '],']</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>['] [activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts']</t>
+          <t>['criteria or standards], [activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established', '], [objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts']</t>
         </is>
       </c>
     </row>
@@ -547,38 +547,34 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>image and video enhancement and restoration</t>
+          <t>big data architecture</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Spatial domain-Linear and Non-linear Filtering, Introduction to Fourier Transform and the frequency Domain– Filtering in Frequency domain, A model of The Image Degradation /Restoration, Noise Models and basic methods for image restoration.</t>
+          <t>Standard Big data architecture - Big data application - Hadoop framework - HDFS Design goal - Master Slave architecture - Block System - Read-write Process for data - Installing HDFS - Executing in HDFS: Reading and writing Local files and Data streams into HDFS - Types of files in HDFS - Strengths and alternatives of HDFS - Concept of YARN. Apache Hadoop Moving Data in and out of Hadoop Understanding inputs and outputs of MapReduce - Problems with traditional large-scale systems-Requirements for a new approach.</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>develop proficiency in image enhancement and segmentation</t>
+          <t>analyze the big data under spark architecture</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>0.3509950511201284</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>develop</t>
-        </is>
-      </c>
+        <v>0.5268136892435387</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr">
         <is>
-          <t>["['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], []"]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches', 'compare and contrast two or more theories, events, or processes', 'classify or categorize cases, elements, or events using established criteria', 'paraphrase documents or speeches', 'find or identify examples or illustrations of a concept or principle', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established', 'criteria or standards], [activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches', 'compare and contrast two or more theories, events, or processes', 'classify or categorize cases, elements, or events using established criteria', 'paraphrase documents or speeches', 'find or identify examples or illustrations of a concept or principle', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', '], [activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established', 'criteria or standards], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches', 'compare and contrast two or more theories, events, or processes', 'classify or categorize cases, elements, or events using established criteria', 'paraphrase documents or speeches', 'find or identify examples or illustrations of a concept or principle', '], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established', 'criteria or standards, activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', '],']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -598,43 +594,43 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>image and video compression</t>
+          <t>parallel processing with mapreduce</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Fundamentals of Image Compression: Huffman Coding, Run length Coding, LZW Coding, Bit plane coding. Video Compression: Basic Concepts and Techniques of Video compression, MPEG-1 and MPEG-2 Video Standards.</t>
+          <t>Introduction to MapReduce - Sample MapReduce application: Wordcount - MapReduce Data types and Formats - Writing MapReduce Programming - Testing MapReduce Programs - MapReduce Job Execution - Shuffle and Sort - Managing Failures - Progress and Status Updates. MapReduce Programs: Using languages other than Java with Hadoop, Analyzing a large dataset.</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>understand the fundamental principles of image and video analysis</t>
+          <t>demonstrate an ability to use hadoop framework for processing big data for analytics</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>0.2286463650054271</v>
+        <v>0.08574466264484321</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>understand</t>
+          <t>demonstrateuseprocessing</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>["['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], []"]</t>
+          <t>["['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •']", "['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], []", "['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], []"]</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches', 'compare and contrast two or more theories, events, or processes', 'classify or categorize cases, elements, or events using established criteria', 'paraphrase documents or speeches', 'find or identify examples or illustrations of a concept or principle', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established', 'criteria or standards], [activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches', 'compare and contrast two or more theories, events, or processes', 'classify or categorize cases, elements, or events using established criteria', 'paraphrase documents or speeches', 'find or identify examples or illustrations of a concept or principle', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established', 'criteria or standards], [activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established', 'criteria or standards], [activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established', 'criteria or standards, activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', '], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established', 'criteria or standards, activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', '], [objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', '],']</t>
+          <t>['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches', 'compare and contrast two or more theories, events, or processes', 'classify or categorize cases, elements, or events using established criteria', 'paraphrase documents or speeches', 'find or identify examples or illustrations of a concept or principle', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established', 'criteria or standards], [activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches', 'compare and contrast two or more theories, events, or processes', 'classify or categorize cases, elements, or events using established criteria', 'paraphrase documents or speeches', 'find or identify examples or illustrations of a concept or principle', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', '], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches', 'compare and contrast two or more theories, events, or processes', 'classify or categorize cases, elements, or events using established criteria', 'paraphrase documents or speeches', 'find or identify examples or illustrations of a concept or principle', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', '] [activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches', 'compare and contrast two or more theories, events, or processes', 'classify or categorize cases, elements, or events using established criteria', 'paraphrase documents or speeches', 'find or identify examples or illustrations of a concept or principle', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established', 'criteria or standards], [activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established', 'criteria or standards], [activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches', 'compare and contrast two or more theories, events, or processes', 'classify or categorize cases, elements, or events using established criteria', 'paraphrase documents or speeches', 'find or identify examples or illustrations of a concept or principle', '], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches', 'compare and contrast two or more theories, events, or processes', 'classify or categorize cases, elements, or events using established criteria', 'paraphrase documents or speeches', 'find or identify examples or illustrations of a concept or principle', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', '], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', '], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', '], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', '], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', '], [] [activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches', 'compare and contrast two or more theories, events, or processes', 'classify or categorize cases, elements, or events using established criteria', 'paraphrase documents or speeches', 'find or identify examples or illustrations of a concept or principle', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established', 'criteria or standards], [activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established', 'criteria or standards], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches', 'compare and contrast two or more theories, events, or processes', 'classify or categorize cases, elements, or events using established criteria', 'paraphrase documents or speeches', 'find or identify examples or illustrations of a concept or principle', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', '], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', '], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', '], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', '],']</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>['criteria or standards], [activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established', '], [objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts']</t>
+          <t>['] [activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts']</t>
         </is>
       </c>
     </row>
@@ -649,43 +645,43 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>feature detection and description</t>
+          <t>hive and pig</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Introduction to feature detectors, Point, line and edge detection, Image Segmentation - Region Based Segmentation – Region Growing and Region Splitting and Merging, Thresholding – Basic global thresholding, optimum global thresholding using Otsu’s Method.</t>
+          <t>Hive Architecture - Components - Data Definition - Partitioning - Data Manipulation - Joins, Views and Indexes - Hive Execution - Pig Architecture - Pig Latin Data Model - Latin Operators - Loading Data - Diagnostic Operators - Group Operators - Pig Joins - Row Level Operators - Pig Built-in function - User defined functions - Pig Scripts.</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>develop skills in object detection and recognition</t>
+          <t>demonstrate the programming of big data using hive and pig environments</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>0.1964929852033372</v>
+        <v>0.5247991960469408</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>develop</t>
+          <t>demonstrateusing</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>["['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], []"]</t>
+          <t>["['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], []", "['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], []"]</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches', 'compare and contrast two or more theories, events, or processes', 'classify or categorize cases, elements, or events using established criteria', 'paraphrase documents or speeches', 'find or identify examples or illustrations of a concept or principle', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established', 'criteria or standards], [activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches', 'compare and contrast two or more theories, events, or processes', 'classify or categorize cases, elements, or events using established criteria', 'paraphrase documents or speeches', 'find or identify examples or illustrations of a concept or principle', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', '], [activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established', 'criteria or standards], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches', 'compare and contrast two or more theories, events, or processes', 'classify or categorize cases, elements, or events using established criteria', 'paraphrase documents or speeches', 'find or identify examples or illustrations of a concept or principle', '], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established', 'criteria or standards, activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', '],']</t>
+          <t>['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches', 'compare and contrast two or more theories, events, or processes', 'classify or categorize cases, elements, or events using established criteria', 'paraphrase documents or speeches', 'find or identify examples or illustrations of a concept or principle', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established', 'criteria or standards], [activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established', 'criteria or standards], [activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', '], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', '], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', '], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', '], [] [activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches', 'compare and contrast two or more theories, events, or processes', 'classify or categorize cases, elements, or events using established criteria', 'paraphrase documents or speeches', 'find or identify examples or illustrations of a concept or principle', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established', 'criteria or standards], [activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established', 'criteria or standards], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches', 'compare and contrast two or more theories, events, or processes', 'classify or categorize cases, elements, or events using established criteria', 'paraphrase documents or speeches', 'find or identify examples or illustrations of a concept or principle', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', '], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', '], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', '], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', '],']</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['criteria or standards], [activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks']</t>
         </is>
       </c>
     </row>
@@ -700,38 +696,34 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>object detection and recognition</t>
+          <t>stream processing with spark</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Descriptors: Boundary descriptors - Fourier descriptors - Regional descriptors Object detection and recognition in image and video: Minimum distance classifier, Applications in image and video analysis, object tracking in videos.</t>
+          <t>Stream processing Models and Tools - Apache Spark - Spark Architecture: Resilient Distributed Datasets, Directed Acyclic Graph - Spark Ecosystem - Spark for Big Data Processing: MLlib, Spark GraphX, SparkR, SparkSQL, Spark Streaming - Spark versus Hadoop . PySpark + NumPy + SciPy, Code Optimization.</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>develop skills in object detection and recognition</t>
+          <t>analyze the big data under spark architecture</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>0.6822268245187914</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>develop</t>
-        </is>
-      </c>
+        <v>0.1959902092143908</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
-          <t>["['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], []"]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches', 'compare and contrast two or more theories, events, or processes', 'classify or categorize cases, elements, or events using established criteria', 'paraphrase documents or speeches', 'find or identify examples or illustrations of a concept or principle', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established', 'criteria or standards], [activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches', 'compare and contrast two or more theories, events, or processes', 'classify or categorize cases, elements, or events using established criteria', 'paraphrase documents or speeches', 'find or identify examples or illustrations of a concept or principle', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', '], [activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established', 'criteria or standards], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches', 'compare and contrast two or more theories, events, or processes', 'classify or categorize cases, elements, or events using established criteria', 'paraphrase documents or speeches', 'find or identify examples or illustrations of a concept or principle', '], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established', 'criteria or standards, activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', '],']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">

--- a/Pre Research Works/unique_assessments.xlsx
+++ b/Pre Research Works/unique_assessments.xlsx
@@ -620,17 +620,17 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>["['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •']", "['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], []", "['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], []"]</t>
+          <t>["['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], []", "['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], []", "['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •']"]</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches', 'compare and contrast two or more theories, events, or processes', 'classify or categorize cases, elements, or events using established criteria', 'paraphrase documents or speeches', 'find or identify examples or illustrations of a concept or principle', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established', 'criteria or standards], [activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches', 'compare and contrast two or more theories, events, or processes', 'classify or categorize cases, elements, or events using established criteria', 'paraphrase documents or speeches', 'find or identify examples or illustrations of a concept or principle', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', '], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches', 'compare and contrast two or more theories, events, or processes', 'classify or categorize cases, elements, or events using established criteria', 'paraphrase documents or speeches', 'find or identify examples or illustrations of a concept or principle', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', '] [activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches', 'compare and contrast two or more theories, events, or processes', 'classify or categorize cases, elements, or events using established criteria', 'paraphrase documents or speeches', 'find or identify examples or illustrations of a concept or principle', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established', 'criteria or standards], [activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established', 'criteria or standards], [activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches', 'compare and contrast two or more theories, events, or processes', 'classify or categorize cases, elements, or events using established criteria', 'paraphrase documents or speeches', 'find or identify examples or illustrations of a concept or principle', '], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches', 'compare and contrast two or more theories, events, or processes', 'classify or categorize cases, elements, or events using established criteria', 'paraphrase documents or speeches', 'find or identify examples or illustrations of a concept or principle', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', '], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', '], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', '], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', '], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', '], [] [activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches', 'compare and contrast two or more theories, events, or processes', 'classify or categorize cases, elements, or events using established criteria', 'paraphrase documents or speeches', 'find or identify examples or illustrations of a concept or principle', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established', 'criteria or standards], [activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established', 'criteria or standards], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches', 'compare and contrast two or more theories, events, or processes', 'classify or categorize cases, elements, or events using established criteria', 'paraphrase documents or speeches', 'find or identify examples or illustrations of a concept or principle', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', '], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', '], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', '], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', '],']</t>
+          <t>['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches', 'compare and contrast two or more theories, events, or processes', 'classify or categorize cases, elements, or events using established criteria', 'paraphrase documents or speeches', 'find or identify examples or illustrations of a concept or principle', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established', 'criteria or standards], [activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established', 'criteria or standards], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches', 'compare and contrast two or more theories, events, or processes', 'classify or categorize cases, elements, or events using established criteria', 'paraphrase documents or speeches', 'find or identify examples or illustrations of a concept or principle', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', '], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', '], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', '], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', '], [] [activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches', 'compare and contrast two or more theories, events, or processes', 'classify or categorize cases, elements, or events using established criteria', 'paraphrase documents or speeches', 'find or identify examples or illustrations of a concept or principle', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established', 'criteria or standards], [activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established', 'criteria or standards], [activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches', 'compare and contrast two or more theories, events, or processes', 'classify or categorize cases, elements, or events using established criteria', 'paraphrase documents or speeches', 'find or identify examples or illustrations of a concept or principle', '], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches', 'compare and contrast two or more theories, events, or processes', 'classify or categorize cases, elements, or events using established criteria', 'paraphrase documents or speeches', 'find or identify examples or illustrations of a concept or principle', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', '], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', '], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', '], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', '], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', '], [] [activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches', 'compare and contrast two or more theories, events, or processes', 'classify or categorize cases, elements, or events using established criteria', 'paraphrase documents or speeches', 'find or identify examples or illustrations of a concept or principle', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established', 'criteria or standards], [activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches', 'compare and contrast two or more theories, events, or processes', 'classify or categorize cases, elements, or events using established criteria', 'paraphrase documents or speeches', 'find or identify examples or illustrations of a concept or principle', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', '], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches', 'compare and contrast two or more theories, events, or processes', 'classify or categorize cases, elements, or events using established criteria', 'paraphrase documents or speeches', 'find or identify examples or illustrations of a concept or principle', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task']</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>['] [activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -671,12 +671,12 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>["['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], []", "['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], []"]</t>
+          <t>["['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], []", "['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], []"]</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches', 'compare and contrast two or more theories, events, or processes', 'classify or categorize cases, elements, or events using established criteria', 'paraphrase documents or speeches', 'find or identify examples or illustrations of a concept or principle', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established', 'criteria or standards], [activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established', 'criteria or standards], [activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', '], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', '], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', '], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', '], [] [activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches', 'compare and contrast two or more theories, events, or processes', 'classify or categorize cases, elements, or events using established criteria', 'paraphrase documents or speeches', 'find or identify examples or illustrations of a concept or principle', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established', 'criteria or standards], [activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established', 'criteria or standards], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches', 'compare and contrast two or more theories, events, or processes', 'classify or categorize cases, elements, or events using established criteria', 'paraphrase documents or speeches', 'find or identify examples or illustrations of a concept or principle', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', '], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', '], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', '], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', '],']</t>
+          <t>['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches', 'compare and contrast two or more theories, events, or processes', 'classify or categorize cases, elements, or events using established criteria', 'paraphrase documents or speeches', 'find or identify examples or illustrations of a concept or principle', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established', 'criteria or standards], [activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established', 'criteria or standards], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches', 'compare and contrast two or more theories, events, or processes', 'classify or categorize cases, elements, or events using established criteria', 'paraphrase documents or speeches', 'find or identify examples or illustrations of a concept or principle', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', '], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', '], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', '], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', '], [] [activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches', 'compare and contrast two or more theories, events, or processes', 'classify or categorize cases, elements, or events using established criteria', 'paraphrase documents or speeches', 'find or identify examples or illustrations of a concept or principle', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established', 'criteria or standards], [activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established', 'criteria or standards], [activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', '], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', '], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', '], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', '],']</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">

--- a/Pre Research Works/unique_assessments.xlsx
+++ b/Pre Research Works/unique_assessments.xlsx
@@ -496,43 +496,43 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>introduction</t>
+          <t>introduction to digital image and video processing</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Concepts of Data Analytics: Descriptive, Diagnostic, Predictive, Prescriptive analytics - Big Data characteristics: Volume, Velocity, Variety, Veracity of data - Types of data: Structured, Unstructured, Semi-Structured, Metadata - Introduction to Hadoop Scaling - Distributed Framework -Hadoop v/s RDBMS-Brief history of Hadoop.</t>
+          <t>Digital image representation, Sampling and Quantization, Types of Images, Basic Relations between Pixels - Neighbors, Connectivity, Distance Measures between pixels, Introduction to Digital Video, Sampled Video, Video Transmission. Gray-Level Processing: Image Histogram, Linear and Non-linear point operations on Images, Image Thresholding, Region labelling, Binary Image Morphology.</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>understand the big data concepts in real time scenario</t>
+          <t>apply the image and video analysis approaches to solve real world problems</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.2325973172734696</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>understand</t>
+          <t>applysolve</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>["['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], []"]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches', 'compare and contrast two or more theories, events, or processes', 'classify or categorize cases, elements, or events using established criteria', 'paraphrase documents or speeches', 'find or identify examples or illustrations of a concept or principle', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established', 'criteria or standards], [activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches', 'compare and contrast two or more theories, events, or processes', 'classify or categorize cases, elements, or events using established criteria', 'paraphrase documents or speeches', 'find or identify examples or illustrations of a concept or principle', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established', 'criteria or standards], [activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established', 'criteria or standards], [activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established', 'criteria or standards, activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', '], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established', 'criteria or standards, activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', '], [objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', '],']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>['criteria or standards], [activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established', '], [objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -547,26 +547,30 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>big data architecture</t>
+          <t>image and video enhancement and restoration</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Standard Big data architecture - Big data application - Hadoop framework - HDFS Design goal - Master Slave architecture - Block System - Read-write Process for data - Installing HDFS - Executing in HDFS: Reading and writing Local files and Data streams into HDFS - Types of files in HDFS - Strengths and alternatives of HDFS - Concept of YARN. Apache Hadoop Moving Data in and out of Hadoop Understanding inputs and outputs of MapReduce - Problems with traditional large-scale systems-Requirements for a new approach.</t>
+          <t>Spatial domain-Linear and Non-linear Filtering, Introduction to Fourier Transform and the frequency Domain– Filtering in Frequency domain, A model of The Image Degradation /Restoration, Noise Models and basic methods for image restoration.</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>analyze the big data under spark architecture</t>
+          <t>develop proficiency in image enhancement and segmentation</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>0.5268136892435387</v>
-      </c>
-      <c r="H3" t="inlineStr"/>
+        <v>0.3509950511201284</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>develop</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr">
         <is>
           <t>[]</t>
@@ -594,43 +598,43 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>parallel processing with mapreduce</t>
+          <t>image and video compression</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Introduction to MapReduce - Sample MapReduce application: Wordcount - MapReduce Data types and Formats - Writing MapReduce Programming - Testing MapReduce Programs - MapReduce Job Execution - Shuffle and Sort - Managing Failures - Progress and Status Updates. MapReduce Programs: Using languages other than Java with Hadoop, Analyzing a large dataset.</t>
+          <t>Fundamentals of Image Compression: Huffman Coding, Run length Coding, LZW Coding, Bit plane coding. Video Compression: Basic Concepts and Techniques of Video compression, MPEG-1 and MPEG-2 Video Standards.</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>demonstrate an ability to use hadoop framework for processing big data for analytics</t>
+          <t>understand the fundamental principles of image and video analysis</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>0.08574466264484321</v>
+        <v>0.2286463650054271</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>demonstrateuseprocessing</t>
+          <t>understand</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>["['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], []", "['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], []", "['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •']"]</t>
+          <t>["['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •'], ['activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •'], ['objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], []"]</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches', 'compare and contrast two or more theories, events, or processes', 'classify or categorize cases, elements, or events using established criteria', 'paraphrase documents or speeches', 'find or identify examples or illustrations of a concept or principle', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established', 'criteria or standards], [activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established', 'criteria or standards], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches', 'compare and contrast two or more theories, events, or processes', 'classify or categorize cases, elements, or events using established criteria', 'paraphrase documents or speeches', 'find or identify examples or illustrations of a concept or principle', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', '], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', '], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', '], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', '], [] [activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches', 'compare and contrast two or more theories, events, or processes', 'classify or categorize cases, elements, or events using established criteria', 'paraphrase documents or speeches', 'find or identify examples or illustrations of a concept or principle', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established', 'criteria or standards], [activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established', 'criteria or standards], [activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches', 'compare and contrast two or more theories, events, or processes', 'classify or categorize cases, elements, or events using established criteria', 'paraphrase documents or speeches', 'find or identify examples or illustrations of a concept or principle', '], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches', 'compare and contrast two or more theories, events, or processes', 'classify or categorize cases, elements, or events using established criteria', 'paraphrase documents or speeches', 'find or identify examples or illustrations of a concept or principle', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', '], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', '], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', '], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', '], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', '], [] [activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches', 'compare and contrast two or more theories, events, or processes', 'classify or categorize cases, elements, or events using established criteria', 'paraphrase documents or speeches', 'find or identify examples or illustrations of a concept or principle', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established', 'criteria or standards], [activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches', 'compare and contrast two or more theories, events, or processes', 'classify or categorize cases, elements, or events using established criteria', 'paraphrase documents or speeches', 'find or identify examples or illustrations of a concept or principle', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', '], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches', 'compare and contrast two or more theories, events, or processes', 'classify or categorize cases, elements, or events using established criteria', 'paraphrase documents or speeches', 'find or identify examples or illustrations of a concept or principle', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task']</t>
+          <t>['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches', 'compare and contrast two or more theories, events, or processes', 'classify or categorize cases, elements, or events using established criteria', 'paraphrase documents or speeches', 'find or identify examples or illustrations of a concept or principle', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established', 'criteria or standards], [activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches', 'compare and contrast two or more theories, events, or processes', 'classify or categorize cases, elements, or events using established criteria', 'paraphrase documents or speeches', 'find or identify examples or illustrations of a concept or principle', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established', 'criteria or standards], [activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches', 'compare and contrast two or more theories, events, or processes', 'classify or categorize cases, elements, or events using established criteria', 'paraphrase documents or speeches', 'find or identify examples or illustrations of a concept or principle', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established', 'criteria or standards], [activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established', 'criteria or standards], [activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches', 'compare and contrast two or more theories, events, or processes', 'classify or categorize cases, elements, or events using established criteria', 'paraphrase documents or speeches', 'find or identify examples or illustrations of a concept or principle', '], [activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established', 'criteria or standards, activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', '], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches', 'compare and contrast two or more theories, events, or processes', 'classify or categorize cases, elements, or events using established criteria', 'paraphrase documents or speeches', 'find or identify examples or illustrations of a concept or principle', '], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', '], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established', 'criteria or standards, activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', '], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', '], [objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', '],']</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', '], [activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established', '], [objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', '],']</t>
         </is>
       </c>
     </row>
@@ -645,43 +649,43 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>hive and pig</t>
+          <t>feature detection and description</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Hive Architecture - Components - Data Definition - Partitioning - Data Manipulation - Joins, Views and Indexes - Hive Execution - Pig Architecture - Pig Latin Data Model - Latin Operators - Loading Data - Diagnostic Operators - Group Operators - Pig Joins - Row Level Operators - Pig Built-in function - User defined functions - Pig Scripts.</t>
+          <t>Introduction to feature detectors, Point, line and edge detection, Image Segmentation - Region Based Segmentation – Region Growing and Region Splitting and Merging, Thresholding – Basic global thresholding, optimum global thresholding using Otsu’s Method.</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>demonstrate the programming of big data using hive and pig environments</t>
+          <t>develop skills in object detection and recognition</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>0.5247991960469408</v>
+        <v>0.1964929852033372</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>demonstrateusing</t>
+          <t>develop</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>["['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], []", "['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches • compare and contrast two or more theories, events, or processes • classify or categorize cases, elements, or events using established criteria • paraphrase documents or speeches • find or identify examples or illustrations of a concept or principle •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established • criteria or standards'], ['activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •', 'activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks • determine which procedure(s) are most appropriate for a given task •'], ['activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new •', 'activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts • determine how elements function together • determine bias, values, or underlying intent in presented material •', 'objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts •'], []"]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>['activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches', 'compare and contrast two or more theories, events, or processes', 'classify or categorize cases, elements, or events using established criteria', 'paraphrase documents or speeches', 'find or identify examples or illustrations of a concept or principle', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established', 'criteria or standards], [activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established', 'criteria or standards], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches', 'compare and contrast two or more theories, events, or processes', 'classify or categorize cases, elements, or events using established criteria', 'paraphrase documents or speeches', 'find or identify examples or illustrations of a concept or principle', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', '], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', '], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', '], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', '], [] [activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as papers, exams, problem sets, class discussions, or concept maps that require students to: summarize readings, films, or speeches', 'compare and contrast two or more theories, events, or processes', 'classify or categorize cases, elements, or events using established criteria', 'paraphrase documents or speeches', 'find or identify examples or illustrations of a concept or principle', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established', 'criteria or standards], [activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as journals, diaries, critiques, problem sets, product reviews, or studies that require students to: test, monitor, judge, or critique readings, performances, or products against established', 'criteria or standards], [activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', '], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', '], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', ', activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks', 'determine which procedure(s) are most appropriate for a given task', '], [activities such as research projects, musical compositions, performances, essays, business plans, website designs, or set designs that require students to: make, build, design or generate something new', ', activities such as case studies, critiques, labs, papers, projects, debates, or concept maps that require students to: discriminate or select relevant and irrelevant parts', 'determine how elements function together', 'determine bias, values, or underlying intent in presented material', ', objective test items such as fill-in-the-blank, matching, labeling, or multiple-choice questions that require students to: recall or recognize terms, facts, and concepts', '],']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>['criteria or standards], [activities such as problem sets, performances, labs, prototyping, or simulations that require students to: use procedures to solve or complete familiar or unfamiliar tasks']</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -696,26 +700,30 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>stream processing with spark</t>
+          <t>object detection and recognition</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Stream processing Models and Tools - Apache Spark - Spark Architecture: Resilient Distributed Datasets, Directed Acyclic Graph - Spark Ecosystem - Spark for Big Data Processing: MLlib, Spark GraphX, SparkR, SparkSQL, Spark Streaming - Spark versus Hadoop . PySpark + NumPy + SciPy, Code Optimization.</t>
+          <t>Descriptors: Boundary descriptors - Fourier descriptors - Regional descriptors Object detection and recognition in image and video: Minimum distance classifier, Applications in image and video analysis, object tracking in videos.</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>analyze the big data under spark architecture</t>
+          <t>develop skills in object detection and recognition</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>0.1959902092143908</v>
-      </c>
-      <c r="H6" t="inlineStr"/>
+        <v>0.6822268245187914</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>develop</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr">
         <is>
           <t>[]</t>
